--- a/data/trans_bre/P41E_2023_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.127648632496913</v>
+        <v>7.12764863249693</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2555219061952952</v>
+        <v>0.2555219061952959</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.354863020145151</v>
+        <v>0.2862938053453638</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.01166952269402001</v>
+        <v>0.009916393779756231</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.49784248882743</v>
+        <v>12.77570032257765</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.5571484278784292</v>
+        <v>0.5385984567296526</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.454715212331294</v>
+        <v>-3.270741552476408</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3263622974935569</v>
+        <v>-0.3118267753924401</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.098530549009069</v>
+        <v>1.164677507001923</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1358609112441069</v>
+        <v>0.1590137913285757</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08499690128701137</v>
+        <v>0.08499690128701345</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.01937579377504747</v>
+        <v>0.01937579377504795</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.195348338399186</v>
+        <v>-2.277077573524411</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.4078481987121244</v>
+        <v>-0.4200247251696547</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.768033781690579</v>
+        <v>2.443640370686611</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.9320390166527578</v>
+        <v>0.7895927939708427</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.136909611414465</v>
+        <v>1.136909611414463</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1011168982530105</v>
+        <v>0.1011168982530103</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6804904837295499</v>
+        <v>-0.7993189302675372</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05728146758613618</v>
+        <v>-0.06862101753498535</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.145452262990315</v>
+        <v>3.082414044944688</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2936716857907236</v>
+        <v>0.299150851040062</v>
       </c>
     </row>
     <row r="16">
